--- a/Code/Results/Cases/Case_1_104/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_104/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004602874001893</v>
+        <v>1.035269238710401</v>
       </c>
       <c r="D2">
-        <v>1.032783602899053</v>
+        <v>1.034677586403836</v>
       </c>
       <c r="E2">
-        <v>1.016768590416445</v>
+        <v>1.043146302407664</v>
       </c>
       <c r="F2">
-        <v>1.019354440037752</v>
+        <v>1.051224250301505</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049962110953888</v>
+        <v>1.037381170959519</v>
       </c>
       <c r="J2">
-        <v>1.026646780109203</v>
+        <v>1.040383936404246</v>
       </c>
       <c r="K2">
-        <v>1.043804349385933</v>
+        <v>1.037476372845884</v>
       </c>
       <c r="L2">
-        <v>1.02799915247545</v>
+        <v>1.045920991050894</v>
       </c>
       <c r="M2">
-        <v>1.030550564352432</v>
+        <v>1.053976345408485</v>
       </c>
       <c r="N2">
-        <v>1.028104736294993</v>
+        <v>1.041861400927646</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009210664074989</v>
+        <v>1.036236780058784</v>
       </c>
       <c r="D3">
-        <v>1.03521073277748</v>
+        <v>1.035173233315323</v>
       </c>
       <c r="E3">
-        <v>1.020760987536822</v>
+        <v>1.044041305763808</v>
       </c>
       <c r="F3">
-        <v>1.024011574716623</v>
+        <v>1.052284352942675</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05121892307069</v>
+        <v>1.037570943987283</v>
       </c>
       <c r="J3">
-        <v>1.029453347995344</v>
+        <v>1.040994864668283</v>
       </c>
       <c r="K3">
-        <v>1.045412067844017</v>
+        <v>1.037782092557411</v>
       </c>
       <c r="L3">
-        <v>1.031134944099994</v>
+        <v>1.0466267502221</v>
       </c>
       <c r="M3">
-        <v>1.0343461715119</v>
+        <v>1.05484841483963</v>
       </c>
       <c r="N3">
-        <v>1.030915289829447</v>
+        <v>1.042473196779892</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012129484568674</v>
+        <v>1.036863063637582</v>
       </c>
       <c r="D4">
-        <v>1.036750443727198</v>
+        <v>1.03549384550145</v>
       </c>
       <c r="E4">
-        <v>1.023296073420864</v>
+        <v>1.04462106386933</v>
       </c>
       <c r="F4">
-        <v>1.02696953016352</v>
+        <v>1.052971268778429</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052003504517005</v>
+        <v>1.037692301514832</v>
       </c>
       <c r="J4">
-        <v>1.031227924962654</v>
+        <v>1.041389790432152</v>
       </c>
       <c r="K4">
-        <v>1.04642466824658</v>
+        <v>1.037979090886472</v>
       </c>
       <c r="L4">
-        <v>1.033121236246755</v>
+        <v>1.047083420515558</v>
       </c>
       <c r="M4">
-        <v>1.036752998550448</v>
+        <v>1.055413059150803</v>
       </c>
       <c r="N4">
-        <v>1.032692386899597</v>
+        <v>1.042868683383644</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013342079734629</v>
+        <v>1.037126405176462</v>
       </c>
       <c r="D5">
-        <v>1.037390543850389</v>
+        <v>1.035628604202486</v>
       </c>
       <c r="E5">
-        <v>1.024350674102746</v>
+        <v>1.044864944249649</v>
       </c>
       <c r="F5">
-        <v>1.028200252144025</v>
+        <v>1.053260276777452</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052326623851065</v>
+        <v>1.037742975218946</v>
       </c>
       <c r="J5">
-        <v>1.031964339897742</v>
+        <v>1.04155572413521</v>
       </c>
       <c r="K5">
-        <v>1.046843880044476</v>
+        <v>1.038061710950928</v>
       </c>
       <c r="L5">
-        <v>1.033946367244533</v>
+        <v>1.047275403162099</v>
       </c>
       <c r="M5">
-        <v>1.0377534578214</v>
+        <v>1.0556505202617</v>
       </c>
       <c r="N5">
-        <v>1.033429847628361</v>
+        <v>1.043034852731593</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013544846051654</v>
+        <v>1.037170624405311</v>
       </c>
       <c r="D6">
-        <v>1.037497602678606</v>
+        <v>1.035651229169971</v>
       </c>
       <c r="E6">
-        <v>1.024527103782064</v>
+        <v>1.044905901609597</v>
       </c>
       <c r="F6">
-        <v>1.028406158818739</v>
+        <v>1.053308815870369</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052380487026595</v>
+        <v>1.037751463306461</v>
       </c>
       <c r="J6">
-        <v>1.032087431922246</v>
+        <v>1.041583579653369</v>
       </c>
       <c r="K6">
-        <v>1.046913891357208</v>
+        <v>1.038075571579605</v>
       </c>
       <c r="L6">
-        <v>1.034084338866717</v>
+        <v>1.047307637779187</v>
       </c>
       <c r="M6">
-        <v>1.037920783917618</v>
+        <v>1.055690395966128</v>
       </c>
       <c r="N6">
-        <v>1.033553114457659</v>
+        <v>1.043062747807783</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012145743513974</v>
+        <v>1.03686658221691</v>
       </c>
       <c r="D7">
-        <v>1.036759024811946</v>
+        <v>1.035495646260653</v>
       </c>
       <c r="E7">
-        <v>1.023310208334802</v>
+        <v>1.044624322022492</v>
       </c>
       <c r="F7">
-        <v>1.026986024805003</v>
+        <v>1.052975129620404</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052007848269316</v>
+        <v>1.0376929799758</v>
       </c>
       <c r="J7">
-        <v>1.031237802366772</v>
+        <v>1.041392008013136</v>
       </c>
       <c r="K7">
-        <v>1.046430295069386</v>
+        <v>1.037980195639292</v>
       </c>
       <c r="L7">
-        <v>1.033132300181584</v>
+        <v>1.04708598580416</v>
       </c>
       <c r="M7">
-        <v>1.03676641089501</v>
+        <v>1.055416231786256</v>
       </c>
       <c r="N7">
-        <v>1.032702278330762</v>
+        <v>1.042870904113848</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00617342069837</v>
+        <v>1.03559617796787</v>
       </c>
       <c r="D8">
-        <v>1.033610352382703</v>
+        <v>1.03484511325225</v>
       </c>
       <c r="E8">
-        <v>1.018128082784477</v>
+        <v>1.043448641703978</v>
       </c>
       <c r="F8">
-        <v>1.020940139423459</v>
+        <v>1.051582317942078</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050392879007012</v>
+        <v>1.037445603054817</v>
       </c>
       <c r="J8">
-        <v>1.027604048251356</v>
+        <v>1.040590481873114</v>
       </c>
       <c r="K8">
-        <v>1.044353511481188</v>
+        <v>1.037579861976677</v>
       </c>
       <c r="L8">
-        <v>1.029067971357626</v>
+        <v>1.046159505820571</v>
       </c>
       <c r="M8">
-        <v>1.031843741414159</v>
+        <v>1.054270990914359</v>
       </c>
       <c r="N8">
-        <v>1.029063363867705</v>
+        <v>1.04206823971477</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9951432368409219</v>
+        <v>1.0333592742507</v>
       </c>
       <c r="D9">
-        <v>1.027817509627717</v>
+        <v>1.033698062832097</v>
       </c>
       <c r="E9">
-        <v>1.008607636305965</v>
+        <v>1.041381820593618</v>
       </c>
       <c r="F9">
-        <v>1.009837979524934</v>
+        <v>1.04913538641577</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047320787886634</v>
+        <v>1.036998706838267</v>
       </c>
       <c r="J9">
-        <v>1.020868673405641</v>
+        <v>1.039175169826446</v>
       </c>
       <c r="K9">
-        <v>1.040474831968104</v>
+        <v>1.036868168155572</v>
       </c>
       <c r="L9">
-        <v>1.021562587409731</v>
+        <v>1.044526941552829</v>
       </c>
       <c r="M9">
-        <v>1.022773433708492</v>
+        <v>1.05225570195926</v>
       </c>
       <c r="N9">
-        <v>1.022318424017151</v>
+        <v>1.040650917762658</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9874109570668704</v>
+        <v>1.03186919221322</v>
       </c>
       <c r="D10">
-        <v>1.023778543015222</v>
+        <v>1.032932970136607</v>
       </c>
       <c r="E10">
-        <v>1.001970543072031</v>
+        <v>1.040007277981717</v>
       </c>
       <c r="F10">
-        <v>1.002100241792927</v>
+        <v>1.04750911232073</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045110398593773</v>
+        <v>1.036693428272533</v>
       </c>
       <c r="J10">
-        <v>1.016133110912653</v>
+        <v>1.038229708403607</v>
       </c>
       <c r="K10">
-        <v>1.037731342761291</v>
+        <v>1.036389562756816</v>
       </c>
       <c r="L10">
-        <v>1.01630430967</v>
+        <v>1.043438619857763</v>
       </c>
       <c r="M10">
-        <v>1.016431678984733</v>
+        <v>1.050914087956599</v>
       </c>
       <c r="N10">
-        <v>1.017576136482246</v>
+        <v>1.039704113676152</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9839635712214422</v>
+        <v>1.031224258910093</v>
       </c>
       <c r="D11">
-        <v>1.021984564946415</v>
+        <v>1.03260160388946</v>
       </c>
       <c r="E11">
-        <v>0.9990208424635679</v>
+        <v>1.039412889523001</v>
       </c>
       <c r="F11">
-        <v>0.9986615231397145</v>
+        <v>1.046806117092416</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044112299479077</v>
+        <v>1.036559504518855</v>
       </c>
       <c r="J11">
-        <v>1.014019043970792</v>
+        <v>1.037819866545544</v>
       </c>
       <c r="K11">
-        <v>1.036503461579243</v>
+        <v>1.03618135175541</v>
       </c>
       <c r="L11">
-        <v>1.013961247915158</v>
+        <v>1.042967386869891</v>
       </c>
       <c r="M11">
-        <v>1.013608725393889</v>
+        <v>1.050333617481635</v>
       </c>
       <c r="N11">
-        <v>1.015459067322841</v>
+        <v>1.039293689795641</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9826672796110426</v>
+        <v>1.030984744831956</v>
       </c>
       <c r="D12">
-        <v>1.021311148084734</v>
+        <v>1.03247850992409</v>
       </c>
       <c r="E12">
-        <v>0.9979131642080722</v>
+        <v>1.039192227919833</v>
       </c>
       <c r="F12">
-        <v>0.9973701974512484</v>
+        <v>1.046545173240338</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043735174791374</v>
+        <v>1.036509499050869</v>
       </c>
       <c r="J12">
-        <v>1.013223747360277</v>
+        <v>1.037667565954589</v>
       </c>
       <c r="K12">
-        <v>1.036041140796897</v>
+        <v>1.036103867961148</v>
       </c>
       <c r="L12">
-        <v>1.013080454203804</v>
+        <v>1.042792353289391</v>
       </c>
       <c r="M12">
-        <v>1.01254795435403</v>
+        <v>1.050118074320074</v>
       </c>
       <c r="N12">
-        <v>1.014662641299917</v>
+        <v>1.039141172920378</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9829460672220827</v>
+        <v>1.031036119467061</v>
       </c>
       <c r="D13">
-        <v>1.021455922191841</v>
+        <v>1.032504914414156</v>
       </c>
       <c r="E13">
-        <v>0.9981513200445548</v>
+        <v>1.039239555104606</v>
       </c>
       <c r="F13">
-        <v>0.9976478392949324</v>
+        <v>1.046601138430321</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043816362158499</v>
+        <v>1.036520237159363</v>
       </c>
       <c r="J13">
-        <v>1.013394803723706</v>
+        <v>1.0377002379732</v>
       </c>
       <c r="K13">
-        <v>1.036140596039215</v>
+        <v>1.036120495041197</v>
       </c>
       <c r="L13">
-        <v>1.013269870475203</v>
+        <v>1.042829898424425</v>
       </c>
       <c r="M13">
-        <v>1.01277605625974</v>
+        <v>1.050164305906962</v>
       </c>
       <c r="N13">
-        <v>1.014833940583002</v>
+        <v>1.039173891337002</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9838567464794873</v>
+        <v>1.031204459724365</v>
       </c>
       <c r="D14">
-        <v>1.021929045678859</v>
+        <v>1.032591429094083</v>
       </c>
       <c r="E14">
-        <v>0.9989295306703168</v>
+        <v>1.039394647097811</v>
       </c>
       <c r="F14">
-        <v>0.9985550727074402</v>
+        <v>1.046784543718346</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044081257891643</v>
+        <v>1.03655537635622</v>
       </c>
       <c r="J14">
-        <v>1.01395351225075</v>
+        <v>1.037807278695744</v>
       </c>
       <c r="K14">
-        <v>1.036465374506947</v>
+        <v>1.036174949871959</v>
       </c>
       <c r="L14">
-        <v>1.013888658153956</v>
+        <v>1.042952918467454</v>
       </c>
       <c r="M14">
-        <v>1.01352129449082</v>
+        <v>1.050315799196363</v>
       </c>
       <c r="N14">
-        <v>1.01539344254024</v>
+        <v>1.03928108406965</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9844157281406972</v>
+        <v>1.031308185407768</v>
       </c>
       <c r="D15">
-        <v>1.022219609294858</v>
+        <v>1.032644732395757</v>
       </c>
       <c r="E15">
-        <v>0.9994073981407247</v>
+        <v>1.039490220419385</v>
       </c>
       <c r="F15">
-        <v>0.9991121655161984</v>
+        <v>1.046897569627724</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044243615543811</v>
+        <v>1.036576992311293</v>
       </c>
       <c r="J15">
-        <v>1.014296405549233</v>
+        <v>1.037873221148961</v>
       </c>
       <c r="K15">
-        <v>1.036664648365576</v>
+        <v>1.036208482112849</v>
       </c>
       <c r="L15">
-        <v>1.014268508913209</v>
+        <v>1.043028715638885</v>
       </c>
       <c r="M15">
-        <v>1.013978823697948</v>
+        <v>1.050409148432122</v>
       </c>
       <c r="N15">
-        <v>1.015736822786536</v>
+        <v>1.039347120168715</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9876375849409155</v>
+        <v>1.031912000296884</v>
       </c>
       <c r="D16">
-        <v>1.023896630111726</v>
+        <v>1.032954960360786</v>
       </c>
       <c r="E16">
-        <v>1.002164654406369</v>
+        <v>1.040046742467621</v>
       </c>
       <c r="F16">
-        <v>1.002326534292733</v>
+        <v>1.047555792981942</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045175756477934</v>
+        <v>1.036702279824998</v>
       </c>
       <c r="J16">
-        <v>1.016272034704503</v>
+        <v>1.038256898815481</v>
       </c>
       <c r="K16">
-        <v>1.037811972452396</v>
+        <v>1.036403360650564</v>
       </c>
       <c r="L16">
-        <v>1.01645837184967</v>
+        <v>1.043469894467859</v>
       </c>
       <c r="M16">
-        <v>1.016617354474796</v>
+        <v>1.050952621565516</v>
       </c>
       <c r="N16">
-        <v>1.017715257561815</v>
+        <v>1.03973134270153</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.989631404476225</v>
+        <v>1.032290833283576</v>
       </c>
       <c r="D17">
-        <v>1.024936319489347</v>
+        <v>1.033149538964031</v>
       </c>
       <c r="E17">
-        <v>1.003873477602059</v>
+        <v>1.040396048218589</v>
       </c>
       <c r="F17">
-        <v>1.004318670490048</v>
+        <v>1.047968998823023</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045749334448735</v>
+        <v>1.036780404994359</v>
       </c>
       <c r="J17">
-        <v>1.017493947460445</v>
+        <v>1.038497449443017</v>
       </c>
       <c r="K17">
-        <v>1.038520808946999</v>
+        <v>1.036525343384148</v>
       </c>
       <c r="L17">
-        <v>1.017813929886851</v>
+        <v>1.043746639471491</v>
       </c>
       <c r="M17">
-        <v>1.018251399131227</v>
+        <v>1.051293650830255</v>
       </c>
       <c r="N17">
-        <v>1.018938905574025</v>
+        <v>1.039972234938548</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.990784850583546</v>
+        <v>1.032511827336232</v>
       </c>
       <c r="D18">
-        <v>1.025538423188813</v>
+        <v>1.033263025922973</v>
       </c>
       <c r="E18">
-        <v>1.004862937716292</v>
+        <v>1.040599869245524</v>
       </c>
       <c r="F18">
-        <v>1.005472192561129</v>
+        <v>1.048210129776615</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046079954504731</v>
+        <v>1.036825806532653</v>
       </c>
       <c r="J18">
-        <v>1.018200573167939</v>
+        <v>1.038637715012515</v>
       </c>
       <c r="K18">
-        <v>1.03893042487306</v>
+        <v>1.036596400024568</v>
       </c>
       <c r="L18">
-        <v>1.018598255174736</v>
+        <v>1.043908061789959</v>
       </c>
       <c r="M18">
-        <v>1.019197132664853</v>
+        <v>1.051492611499242</v>
       </c>
       <c r="N18">
-        <v>1.019646534771076</v>
+        <v>1.040112699701244</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9911765572535497</v>
+        <v>1.032587185192632</v>
       </c>
       <c r="D19">
-        <v>1.025742998857211</v>
+        <v>1.033301720729812</v>
       </c>
       <c r="E19">
-        <v>1.005199104061551</v>
+        <v>1.040669379963039</v>
       </c>
       <c r="F19">
-        <v>1.005864101978859</v>
+        <v>1.048292368679351</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046192026076543</v>
+        <v>1.036841258845773</v>
       </c>
       <c r="J19">
-        <v>1.018440494771891</v>
+        <v>1.038685534541581</v>
       </c>
       <c r="K19">
-        <v>1.039069449371938</v>
+        <v>1.036620612557047</v>
       </c>
       <c r="L19">
-        <v>1.018864628488217</v>
+        <v>1.043963102885745</v>
       </c>
       <c r="M19">
-        <v>1.019518370836251</v>
+        <v>1.051560459398591</v>
       </c>
       <c r="N19">
-        <v>1.019886797091225</v>
+        <v>1.040160587139527</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9894184767597918</v>
+        <v>1.032250185274275</v>
       </c>
       <c r="D20">
-        <v>1.024825220453362</v>
+        <v>1.033128663279929</v>
       </c>
       <c r="E20">
-        <v>1.00369089324716</v>
+        <v>1.040358563057358</v>
       </c>
       <c r="F20">
-        <v>1.004105813344655</v>
+        <v>1.047924653848582</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045688203914698</v>
+        <v>1.036772040229242</v>
       </c>
       <c r="J20">
-        <v>1.017363481699028</v>
+        <v>1.038471645136183</v>
       </c>
       <c r="K20">
-        <v>1.038445155940938</v>
+        <v>1.036512265488498</v>
       </c>
       <c r="L20">
-        <v>1.017669151742663</v>
+        <v>1.043716947176911</v>
       </c>
       <c r="M20">
-        <v>1.018076849143645</v>
+        <v>1.051257057054113</v>
       </c>
       <c r="N20">
-        <v>1.018808254536262</v>
+        <v>1.039946393986639</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9835890169993237</v>
+        <v>1.031154886527081</v>
       </c>
       <c r="D21">
-        <v>1.021789919666514</v>
+        <v>1.032565952934208</v>
       </c>
       <c r="E21">
-        <v>0.9987007044486402</v>
+        <v>1.039348973031172</v>
       </c>
       <c r="F21">
-        <v>0.9982883089704346</v>
+        <v>1.046730530460659</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044003430910139</v>
+        <v>1.036545035917105</v>
       </c>
       <c r="J21">
-        <v>1.013789267747354</v>
+        <v>1.037775759717263</v>
       </c>
       <c r="K21">
-        <v>1.036369909291908</v>
+        <v>1.036158918274846</v>
       </c>
       <c r="L21">
-        <v>1.013706734263365</v>
+        <v>1.042916692033306</v>
       </c>
       <c r="M21">
-        <v>1.013302182588139</v>
+        <v>1.050271186276408</v>
       </c>
       <c r="N21">
-        <v>1.015228964790809</v>
+        <v>1.039249520330605</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9798320343363748</v>
+        <v>1.030466476989015</v>
       </c>
       <c r="D22">
-        <v>1.019840543013609</v>
+        <v>1.032212098786499</v>
       </c>
       <c r="E22">
-        <v>0.9954932322002672</v>
+        <v>1.038714902700798</v>
       </c>
       <c r="F22">
-        <v>0.9945489985644919</v>
+        <v>1.045980778782357</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042907073044524</v>
+        <v>1.036400804027548</v>
       </c>
       <c r="J22">
-        <v>1.011483670147808</v>
+        <v>1.037337841173921</v>
       </c>
       <c r="K22">
-        <v>1.035028941766068</v>
+        <v>1.035935916682976</v>
       </c>
       <c r="L22">
-        <v>1.011154500861332</v>
+        <v>1.042413559494899</v>
       </c>
       <c r="M22">
-        <v>1.010229219840132</v>
+        <v>1.049651732181176</v>
       </c>
       <c r="N22">
-        <v>1.012920092978217</v>
+        <v>1.038810979892701</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9818326872753067</v>
+        <v>1.03083139221367</v>
       </c>
       <c r="D23">
-        <v>1.020877926016411</v>
+        <v>1.032399688310952</v>
       </c>
       <c r="E23">
-        <v>0.9972004298329106</v>
+        <v>1.039050968819678</v>
       </c>
       <c r="F23">
-        <v>0.9965392884326172</v>
+        <v>1.046378137393791</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043491867987012</v>
+        <v>1.036477406560069</v>
       </c>
       <c r="J23">
-        <v>1.012711615653495</v>
+        <v>1.037570026616188</v>
       </c>
       <c r="K23">
-        <v>1.035743324882084</v>
+        <v>1.036054213152704</v>
       </c>
       <c r="L23">
-        <v>1.01251344882537</v>
+        <v>1.042680277476496</v>
       </c>
       <c r="M23">
-        <v>1.011865206692042</v>
+        <v>1.049980078171576</v>
       </c>
       <c r="N23">
-        <v>1.014149782307369</v>
+        <v>1.039043495064928</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9895147189705571</v>
+        <v>1.03226855227598</v>
       </c>
       <c r="D24">
-        <v>1.024875434685004</v>
+        <v>1.0331380961262</v>
       </c>
       <c r="E24">
-        <v>1.003773417670204</v>
+        <v>1.04037550075065</v>
       </c>
       <c r="F24">
-        <v>1.004202020405216</v>
+        <v>1.047944691078471</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045715838325434</v>
+        <v>1.036775820424293</v>
       </c>
       <c r="J24">
-        <v>1.017422452361254</v>
+        <v>1.03848330512626</v>
       </c>
       <c r="K24">
-        <v>1.038479352116841</v>
+        <v>1.036518175116621</v>
       </c>
       <c r="L24">
-        <v>1.017734590335024</v>
+        <v>1.043730363841696</v>
       </c>
       <c r="M24">
-        <v>1.018155743520174</v>
+        <v>1.051273592070237</v>
       </c>
       <c r="N24">
-        <v>1.018867308943594</v>
+        <v>1.03995807053524</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9980585918761997</v>
+        <v>1.033937360946477</v>
       </c>
       <c r="D25">
-        <v>1.029345329446025</v>
+        <v>1.03399467910765</v>
       </c>
       <c r="E25">
-        <v>1.011117820594326</v>
+        <v>1.041915559309975</v>
       </c>
       <c r="F25">
-        <v>1.012764742675574</v>
+        <v>1.049767096949524</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048142820950498</v>
+        <v>1.037115538158657</v>
       </c>
       <c r="J25">
-        <v>1.022651469257459</v>
+        <v>1.039541403527191</v>
       </c>
       <c r="K25">
-        <v>1.041504557648613</v>
+        <v>1.037052892831267</v>
       </c>
       <c r="L25">
-        <v>1.023545963930008</v>
+        <v>1.044948992351387</v>
       </c>
       <c r="M25">
-        <v>1.025168082222918</v>
+        <v>1.052776369008199</v>
       </c>
       <c r="N25">
-        <v>1.024103751643567</v>
+        <v>1.041017671557265</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_104/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_104/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035269238710401</v>
+        <v>1.004602874001893</v>
       </c>
       <c r="D2">
-        <v>1.034677586403836</v>
+        <v>1.032783602899052</v>
       </c>
       <c r="E2">
-        <v>1.043146302407664</v>
+        <v>1.016768590416445</v>
       </c>
       <c r="F2">
-        <v>1.051224250301505</v>
+        <v>1.019354440037752</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037381170959519</v>
+        <v>1.049962110953888</v>
       </c>
       <c r="J2">
-        <v>1.040383936404246</v>
+        <v>1.026646780109203</v>
       </c>
       <c r="K2">
-        <v>1.037476372845884</v>
+        <v>1.043804349385933</v>
       </c>
       <c r="L2">
-        <v>1.045920991050894</v>
+        <v>1.027999152475449</v>
       </c>
       <c r="M2">
-        <v>1.053976345408485</v>
+        <v>1.030550564352432</v>
       </c>
       <c r="N2">
-        <v>1.041861400927646</v>
+        <v>1.028104736294992</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036236780058784</v>
+        <v>1.009210664074988</v>
       </c>
       <c r="D3">
-        <v>1.035173233315323</v>
+        <v>1.035210732777479</v>
       </c>
       <c r="E3">
-        <v>1.044041305763808</v>
+        <v>1.020760987536821</v>
       </c>
       <c r="F3">
-        <v>1.052284352942675</v>
+        <v>1.024011574716622</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037570943987283</v>
+        <v>1.05121892307069</v>
       </c>
       <c r="J3">
-        <v>1.040994864668283</v>
+        <v>1.029453347995343</v>
       </c>
       <c r="K3">
-        <v>1.037782092557411</v>
+        <v>1.045412067844017</v>
       </c>
       <c r="L3">
-        <v>1.0466267502221</v>
+        <v>1.031134944099993</v>
       </c>
       <c r="M3">
-        <v>1.05484841483963</v>
+        <v>1.0343461715119</v>
       </c>
       <c r="N3">
-        <v>1.042473196779892</v>
+        <v>1.030915289829446</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036863063637582</v>
+        <v>1.012129484568673</v>
       </c>
       <c r="D4">
-        <v>1.03549384550145</v>
+        <v>1.036750443727198</v>
       </c>
       <c r="E4">
-        <v>1.04462106386933</v>
+        <v>1.023296073420864</v>
       </c>
       <c r="F4">
-        <v>1.052971268778429</v>
+        <v>1.02696953016352</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037692301514832</v>
+        <v>1.052003504517004</v>
       </c>
       <c r="J4">
-        <v>1.041389790432152</v>
+        <v>1.031227924962653</v>
       </c>
       <c r="K4">
-        <v>1.037979090886472</v>
+        <v>1.04642466824658</v>
       </c>
       <c r="L4">
-        <v>1.047083420515558</v>
+        <v>1.033121236246754</v>
       </c>
       <c r="M4">
-        <v>1.055413059150803</v>
+        <v>1.036752998550447</v>
       </c>
       <c r="N4">
-        <v>1.042868683383644</v>
+        <v>1.032692386899596</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037126405176462</v>
+        <v>1.013342079734629</v>
       </c>
       <c r="D5">
-        <v>1.035628604202486</v>
+        <v>1.037390543850388</v>
       </c>
       <c r="E5">
-        <v>1.044864944249649</v>
+        <v>1.024350674102746</v>
       </c>
       <c r="F5">
-        <v>1.053260276777452</v>
+        <v>1.028200252144024</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037742975218946</v>
+        <v>1.052326623851065</v>
       </c>
       <c r="J5">
-        <v>1.04155572413521</v>
+        <v>1.031964339897742</v>
       </c>
       <c r="K5">
-        <v>1.038061710950928</v>
+        <v>1.046843880044475</v>
       </c>
       <c r="L5">
-        <v>1.047275403162099</v>
+        <v>1.033946367244533</v>
       </c>
       <c r="M5">
-        <v>1.0556505202617</v>
+        <v>1.037753457821399</v>
       </c>
       <c r="N5">
-        <v>1.043034852731593</v>
+        <v>1.03342984762836</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037170624405311</v>
+        <v>1.013544846051653</v>
       </c>
       <c r="D6">
-        <v>1.035651229169971</v>
+        <v>1.037497602678605</v>
       </c>
       <c r="E6">
-        <v>1.044905901609597</v>
+        <v>1.024527103782062</v>
       </c>
       <c r="F6">
-        <v>1.053308815870369</v>
+        <v>1.028406158818737</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037751463306461</v>
+        <v>1.052380487026594</v>
       </c>
       <c r="J6">
-        <v>1.041583579653369</v>
+        <v>1.032087431922245</v>
       </c>
       <c r="K6">
-        <v>1.038075571579605</v>
+        <v>1.046913891357207</v>
       </c>
       <c r="L6">
-        <v>1.047307637779187</v>
+        <v>1.034084338866716</v>
       </c>
       <c r="M6">
-        <v>1.055690395966128</v>
+        <v>1.037920783917616</v>
       </c>
       <c r="N6">
-        <v>1.043062747807783</v>
+        <v>1.033553114457658</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03686658221691</v>
+        <v>1.012145743513973</v>
       </c>
       <c r="D7">
-        <v>1.035495646260653</v>
+        <v>1.036759024811946</v>
       </c>
       <c r="E7">
-        <v>1.044624322022492</v>
+        <v>1.023310208334802</v>
       </c>
       <c r="F7">
-        <v>1.052975129620404</v>
+        <v>1.026986024805002</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0376929799758</v>
+        <v>1.052007848269315</v>
       </c>
       <c r="J7">
-        <v>1.041392008013136</v>
+        <v>1.031237802366771</v>
       </c>
       <c r="K7">
-        <v>1.037980195639292</v>
+        <v>1.046430295069385</v>
       </c>
       <c r="L7">
-        <v>1.04708598580416</v>
+        <v>1.033132300181583</v>
       </c>
       <c r="M7">
-        <v>1.055416231786256</v>
+        <v>1.036766410895009</v>
       </c>
       <c r="N7">
-        <v>1.042870904113848</v>
+        <v>1.032702278330761</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03559617796787</v>
+        <v>1.00617342069837</v>
       </c>
       <c r="D8">
-        <v>1.03484511325225</v>
+        <v>1.033610352382703</v>
       </c>
       <c r="E8">
-        <v>1.043448641703978</v>
+        <v>1.018128082784476</v>
       </c>
       <c r="F8">
-        <v>1.051582317942078</v>
+        <v>1.020940139423459</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037445603054817</v>
+        <v>1.050392879007012</v>
       </c>
       <c r="J8">
-        <v>1.040590481873114</v>
+        <v>1.027604048251356</v>
       </c>
       <c r="K8">
-        <v>1.037579861976677</v>
+        <v>1.044353511481188</v>
       </c>
       <c r="L8">
-        <v>1.046159505820571</v>
+        <v>1.029067971357626</v>
       </c>
       <c r="M8">
-        <v>1.054270990914359</v>
+        <v>1.031843741414159</v>
       </c>
       <c r="N8">
-        <v>1.04206823971477</v>
+        <v>1.029063363867704</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.0333592742507</v>
+        <v>0.9951432368409208</v>
       </c>
       <c r="D9">
-        <v>1.033698062832097</v>
+        <v>1.027817509627717</v>
       </c>
       <c r="E9">
-        <v>1.041381820593618</v>
+        <v>1.008607636305964</v>
       </c>
       <c r="F9">
-        <v>1.04913538641577</v>
+        <v>1.009837979524933</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036998706838267</v>
+        <v>1.047320787886633</v>
       </c>
       <c r="J9">
-        <v>1.039175169826446</v>
+        <v>1.02086867340564</v>
       </c>
       <c r="K9">
-        <v>1.036868168155572</v>
+        <v>1.040474831968104</v>
       </c>
       <c r="L9">
-        <v>1.044526941552829</v>
+        <v>1.02156258740973</v>
       </c>
       <c r="M9">
-        <v>1.05225570195926</v>
+        <v>1.022773433708491</v>
       </c>
       <c r="N9">
-        <v>1.040650917762658</v>
+        <v>1.02231842401715</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03186919221322</v>
+        <v>0.9874109570668697</v>
       </c>
       <c r="D10">
-        <v>1.032932970136607</v>
+        <v>1.023778543015221</v>
       </c>
       <c r="E10">
-        <v>1.040007277981717</v>
+        <v>1.00197054307203</v>
       </c>
       <c r="F10">
-        <v>1.04750911232073</v>
+        <v>1.002100241792926</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036693428272533</v>
+        <v>1.045110398593773</v>
       </c>
       <c r="J10">
-        <v>1.038229708403607</v>
+        <v>1.016133110912653</v>
       </c>
       <c r="K10">
-        <v>1.036389562756816</v>
+        <v>1.03773134276129</v>
       </c>
       <c r="L10">
-        <v>1.043438619857763</v>
+        <v>1.016304309669999</v>
       </c>
       <c r="M10">
-        <v>1.050914087956599</v>
+        <v>1.016431678984731</v>
       </c>
       <c r="N10">
-        <v>1.039704113676152</v>
+        <v>1.017576136482245</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.031224258910093</v>
+        <v>0.9839635712214411</v>
       </c>
       <c r="D11">
-        <v>1.03260160388946</v>
+        <v>1.021984564946415</v>
       </c>
       <c r="E11">
-        <v>1.039412889523001</v>
+        <v>0.9990208424635666</v>
       </c>
       <c r="F11">
-        <v>1.046806117092416</v>
+        <v>0.9986615231397131</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036559504518855</v>
+        <v>1.044112299479077</v>
       </c>
       <c r="J11">
-        <v>1.037819866545544</v>
+        <v>1.014019043970791</v>
       </c>
       <c r="K11">
-        <v>1.03618135175541</v>
+        <v>1.036503461579242</v>
       </c>
       <c r="L11">
-        <v>1.042967386869891</v>
+        <v>1.013961247915157</v>
       </c>
       <c r="M11">
-        <v>1.050333617481635</v>
+        <v>1.013608725393888</v>
       </c>
       <c r="N11">
-        <v>1.039293689795641</v>
+        <v>1.01545906732284</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030984744831956</v>
+        <v>0.9826672796110419</v>
       </c>
       <c r="D12">
-        <v>1.03247850992409</v>
+        <v>1.021311148084734</v>
       </c>
       <c r="E12">
-        <v>1.039192227919833</v>
+        <v>0.9979131642080719</v>
       </c>
       <c r="F12">
-        <v>1.046545173240338</v>
+        <v>0.9973701974512477</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036509499050869</v>
+        <v>1.043735174791373</v>
       </c>
       <c r="J12">
-        <v>1.037667565954589</v>
+        <v>1.013223747360276</v>
       </c>
       <c r="K12">
-        <v>1.036103867961148</v>
+        <v>1.036041140796897</v>
       </c>
       <c r="L12">
-        <v>1.042792353289391</v>
+        <v>1.013080454203804</v>
       </c>
       <c r="M12">
-        <v>1.050118074320074</v>
+        <v>1.012547954354029</v>
       </c>
       <c r="N12">
-        <v>1.039141172920378</v>
+        <v>1.014662641299916</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.031036119467061</v>
+        <v>0.9829460672220826</v>
       </c>
       <c r="D13">
-        <v>1.032504914414156</v>
+        <v>1.021455922191841</v>
       </c>
       <c r="E13">
-        <v>1.039239555104606</v>
+        <v>0.9981513200445546</v>
       </c>
       <c r="F13">
-        <v>1.046601138430321</v>
+        <v>0.9976478392949323</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036520237159363</v>
+        <v>1.043816362158499</v>
       </c>
       <c r="J13">
-        <v>1.0377002379732</v>
+        <v>1.013394803723706</v>
       </c>
       <c r="K13">
-        <v>1.036120495041197</v>
+        <v>1.036140596039215</v>
       </c>
       <c r="L13">
-        <v>1.042829898424425</v>
+        <v>1.013269870475203</v>
       </c>
       <c r="M13">
-        <v>1.050164305906962</v>
+        <v>1.01277605625974</v>
       </c>
       <c r="N13">
-        <v>1.039173891337002</v>
+        <v>1.014833940583002</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031204459724365</v>
+        <v>0.9838567464794857</v>
       </c>
       <c r="D14">
-        <v>1.032591429094083</v>
+        <v>1.021929045678859</v>
       </c>
       <c r="E14">
-        <v>1.039394647097811</v>
+        <v>0.9989295306703154</v>
       </c>
       <c r="F14">
-        <v>1.046784543718346</v>
+        <v>0.9985550727074388</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03655537635622</v>
+        <v>1.044081257891642</v>
       </c>
       <c r="J14">
-        <v>1.037807278695744</v>
+        <v>1.013953512250749</v>
       </c>
       <c r="K14">
-        <v>1.036174949871959</v>
+        <v>1.036465374506946</v>
       </c>
       <c r="L14">
-        <v>1.042952918467454</v>
+        <v>1.013888658153955</v>
       </c>
       <c r="M14">
-        <v>1.050315799196363</v>
+        <v>1.013521294490819</v>
       </c>
       <c r="N14">
-        <v>1.03928108406965</v>
+        <v>1.015393442540239</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031308185407768</v>
+        <v>0.984415728140696</v>
       </c>
       <c r="D15">
-        <v>1.032644732395757</v>
+        <v>1.022219609294858</v>
       </c>
       <c r="E15">
-        <v>1.039490220419385</v>
+        <v>0.9994073981407234</v>
       </c>
       <c r="F15">
-        <v>1.046897569627724</v>
+        <v>0.9991121655161972</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036576992311293</v>
+        <v>1.044243615543811</v>
       </c>
       <c r="J15">
-        <v>1.037873221148961</v>
+        <v>1.014296405549231</v>
       </c>
       <c r="K15">
-        <v>1.036208482112849</v>
+        <v>1.036664648365576</v>
       </c>
       <c r="L15">
-        <v>1.043028715638885</v>
+        <v>1.014268508913208</v>
       </c>
       <c r="M15">
-        <v>1.050409148432122</v>
+        <v>1.013978823697947</v>
       </c>
       <c r="N15">
-        <v>1.039347120168715</v>
+        <v>1.015736822786535</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031912000296884</v>
+        <v>0.9876375849409154</v>
       </c>
       <c r="D16">
-        <v>1.032954960360786</v>
+        <v>1.023896630111726</v>
       </c>
       <c r="E16">
-        <v>1.040046742467621</v>
+        <v>1.00216465440637</v>
       </c>
       <c r="F16">
-        <v>1.047555792981942</v>
+        <v>1.002326534292733</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036702279824998</v>
+        <v>1.045175756477934</v>
       </c>
       <c r="J16">
-        <v>1.038256898815481</v>
+        <v>1.016272034704503</v>
       </c>
       <c r="K16">
-        <v>1.036403360650564</v>
+        <v>1.037811972452395</v>
       </c>
       <c r="L16">
-        <v>1.043469894467859</v>
+        <v>1.01645837184967</v>
       </c>
       <c r="M16">
-        <v>1.050952621565516</v>
+        <v>1.016617354474796</v>
       </c>
       <c r="N16">
-        <v>1.03973134270153</v>
+        <v>1.017715257561815</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032290833283576</v>
+        <v>0.9896314044762233</v>
       </c>
       <c r="D17">
-        <v>1.033149538964031</v>
+        <v>1.024936319489345</v>
       </c>
       <c r="E17">
-        <v>1.040396048218589</v>
+        <v>1.003873477602058</v>
       </c>
       <c r="F17">
-        <v>1.047968998823023</v>
+        <v>1.004318670490046</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036780404994359</v>
+        <v>1.045749334448734</v>
       </c>
       <c r="J17">
-        <v>1.038497449443017</v>
+        <v>1.017493947460443</v>
       </c>
       <c r="K17">
-        <v>1.036525343384148</v>
+        <v>1.038520808946998</v>
       </c>
       <c r="L17">
-        <v>1.043746639471491</v>
+        <v>1.017813929886849</v>
       </c>
       <c r="M17">
-        <v>1.051293650830255</v>
+        <v>1.018251399131225</v>
       </c>
       <c r="N17">
-        <v>1.039972234938548</v>
+        <v>1.018938905574024</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032511827336232</v>
+        <v>0.9907848505835454</v>
       </c>
       <c r="D18">
-        <v>1.033263025922973</v>
+        <v>1.025538423188812</v>
       </c>
       <c r="E18">
-        <v>1.040599869245524</v>
+        <v>1.004862937716292</v>
       </c>
       <c r="F18">
-        <v>1.048210129776615</v>
+        <v>1.005472192561128</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036825806532653</v>
+        <v>1.04607995450473</v>
       </c>
       <c r="J18">
-        <v>1.038637715012515</v>
+        <v>1.018200573167938</v>
       </c>
       <c r="K18">
-        <v>1.036596400024568</v>
+        <v>1.03893042487306</v>
       </c>
       <c r="L18">
-        <v>1.043908061789959</v>
+        <v>1.018598255174736</v>
       </c>
       <c r="M18">
-        <v>1.051492611499242</v>
+        <v>1.019197132664852</v>
       </c>
       <c r="N18">
-        <v>1.040112699701244</v>
+        <v>1.019646534771075</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032587185192632</v>
+        <v>0.9911765572535485</v>
       </c>
       <c r="D19">
-        <v>1.033301720729812</v>
+        <v>1.02574299885721</v>
       </c>
       <c r="E19">
-        <v>1.040669379963039</v>
+        <v>1.00519910406155</v>
       </c>
       <c r="F19">
-        <v>1.048292368679351</v>
+        <v>1.005864101978858</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036841258845773</v>
+        <v>1.046192026076542</v>
       </c>
       <c r="J19">
-        <v>1.038685534541581</v>
+        <v>1.01844049477189</v>
       </c>
       <c r="K19">
-        <v>1.036620612557047</v>
+        <v>1.039069449371937</v>
       </c>
       <c r="L19">
-        <v>1.043963102885745</v>
+        <v>1.018864628488216</v>
       </c>
       <c r="M19">
-        <v>1.051560459398591</v>
+        <v>1.019518370836249</v>
       </c>
       <c r="N19">
-        <v>1.040160587139527</v>
+        <v>1.019886797091224</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032250185274275</v>
+        <v>0.9894184767597913</v>
       </c>
       <c r="D20">
-        <v>1.033128663279929</v>
+        <v>1.024825220453362</v>
       </c>
       <c r="E20">
-        <v>1.040358563057358</v>
+        <v>1.00369089324716</v>
       </c>
       <c r="F20">
-        <v>1.047924653848582</v>
+        <v>1.004105813344655</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036772040229242</v>
+        <v>1.045688203914697</v>
       </c>
       <c r="J20">
-        <v>1.038471645136183</v>
+        <v>1.017363481699027</v>
       </c>
       <c r="K20">
-        <v>1.036512265488498</v>
+        <v>1.038445155940938</v>
       </c>
       <c r="L20">
-        <v>1.043716947176911</v>
+        <v>1.017669151742662</v>
       </c>
       <c r="M20">
-        <v>1.051257057054113</v>
+        <v>1.018076849143644</v>
       </c>
       <c r="N20">
-        <v>1.039946393986639</v>
+        <v>1.018808254536262</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.031154886527081</v>
+        <v>0.983589016999323</v>
       </c>
       <c r="D21">
-        <v>1.032565952934208</v>
+        <v>1.021789919666515</v>
       </c>
       <c r="E21">
-        <v>1.039348973031172</v>
+        <v>0.9987007044486395</v>
       </c>
       <c r="F21">
-        <v>1.046730530460659</v>
+        <v>0.9982883089704341</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036545035917105</v>
+        <v>1.044003430910139</v>
       </c>
       <c r="J21">
-        <v>1.037775759717263</v>
+        <v>1.013789267747353</v>
       </c>
       <c r="K21">
-        <v>1.036158918274846</v>
+        <v>1.036369909291908</v>
       </c>
       <c r="L21">
-        <v>1.042916692033306</v>
+        <v>1.013706734263364</v>
       </c>
       <c r="M21">
-        <v>1.050271186276408</v>
+        <v>1.013302182588138</v>
       </c>
       <c r="N21">
-        <v>1.039249520330605</v>
+        <v>1.015228964790809</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030466476989015</v>
+        <v>0.9798320343363747</v>
       </c>
       <c r="D22">
-        <v>1.032212098786499</v>
+        <v>1.019840543013609</v>
       </c>
       <c r="E22">
-        <v>1.038714902700798</v>
+        <v>0.9954932322002671</v>
       </c>
       <c r="F22">
-        <v>1.045980778782357</v>
+        <v>0.9945489985644921</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036400804027548</v>
+        <v>1.042907073044524</v>
       </c>
       <c r="J22">
-        <v>1.037337841173921</v>
+        <v>1.011483670147808</v>
       </c>
       <c r="K22">
-        <v>1.035935916682976</v>
+        <v>1.035028941766068</v>
       </c>
       <c r="L22">
-        <v>1.042413559494899</v>
+        <v>1.011154500861332</v>
       </c>
       <c r="M22">
-        <v>1.049651732181176</v>
+        <v>1.010229219840132</v>
       </c>
       <c r="N22">
-        <v>1.038810979892701</v>
+        <v>1.012920092978217</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03083139221367</v>
+        <v>0.9818326872753056</v>
       </c>
       <c r="D23">
-        <v>1.032399688310952</v>
+        <v>1.020877926016411</v>
       </c>
       <c r="E23">
-        <v>1.039050968819678</v>
+        <v>0.9972004298329095</v>
       </c>
       <c r="F23">
-        <v>1.046378137393791</v>
+        <v>0.9965392884326159</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036477406560069</v>
+        <v>1.043491867987012</v>
       </c>
       <c r="J23">
-        <v>1.037570026616188</v>
+        <v>1.012711615653494</v>
       </c>
       <c r="K23">
-        <v>1.036054213152704</v>
+        <v>1.035743324882084</v>
       </c>
       <c r="L23">
-        <v>1.042680277476496</v>
+        <v>1.012513448825368</v>
       </c>
       <c r="M23">
-        <v>1.049980078171576</v>
+        <v>1.011865206692041</v>
       </c>
       <c r="N23">
-        <v>1.039043495064928</v>
+        <v>1.014149782307368</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03226855227598</v>
+        <v>0.9895147189705568</v>
       </c>
       <c r="D24">
-        <v>1.0331380961262</v>
+        <v>1.024875434685004</v>
       </c>
       <c r="E24">
-        <v>1.04037550075065</v>
+        <v>1.003773417670204</v>
       </c>
       <c r="F24">
-        <v>1.047944691078471</v>
+        <v>1.004202020405216</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036775820424293</v>
+        <v>1.045715838325433</v>
       </c>
       <c r="J24">
-        <v>1.03848330512626</v>
+        <v>1.017422452361254</v>
       </c>
       <c r="K24">
-        <v>1.036518175116621</v>
+        <v>1.038479352116841</v>
       </c>
       <c r="L24">
-        <v>1.043730363841696</v>
+        <v>1.017734590335024</v>
       </c>
       <c r="M24">
-        <v>1.051273592070237</v>
+        <v>1.018155743520174</v>
       </c>
       <c r="N24">
-        <v>1.03995807053524</v>
+        <v>1.018867308943593</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033937360946477</v>
+        <v>0.9980585918761983</v>
       </c>
       <c r="D25">
-        <v>1.03399467910765</v>
+        <v>1.029345329446023</v>
       </c>
       <c r="E25">
-        <v>1.041915559309975</v>
+        <v>1.011117820594324</v>
       </c>
       <c r="F25">
-        <v>1.049767096949524</v>
+        <v>1.012764742675573</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037115538158657</v>
+        <v>1.048142820950497</v>
       </c>
       <c r="J25">
-        <v>1.039541403527191</v>
+        <v>1.022651469257458</v>
       </c>
       <c r="K25">
-        <v>1.037052892831267</v>
+        <v>1.041504557648612</v>
       </c>
       <c r="L25">
-        <v>1.044948992351387</v>
+        <v>1.023545963930006</v>
       </c>
       <c r="M25">
-        <v>1.052776369008199</v>
+        <v>1.025168082222917</v>
       </c>
       <c r="N25">
-        <v>1.041017671557265</v>
+        <v>1.024103751643566</v>
       </c>
     </row>
   </sheetData>
